--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_7_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_7_sawtooth_10_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.82000000000013</v>
+        <v>22.85000000000013</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0484174984479836</v>
+        <v>0.2232516528205187</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0484174984479836</v>
+        <v>0.2232516528205187</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>7.512847101454873</v>
+        <v>5.70635902201445</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.13183365018359616, 14.89386055272615]</t>
+          <t>[-2.5652209432348023, 13.977938987263702]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.04621015096563497</v>
+        <v>0.1715238328199802</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04621015096563497</v>
+        <v>0.1715238328199802</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.320789704211925</v>
+        <v>-1.270473905956233</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.754789954499158, 0.11321054607530856]</t>
+          <t>[-4.390053397809161, 1.8491055858966954]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.07014081416816853</v>
+        <v>0.4163918793752099</v>
       </c>
       <c r="S2" t="n">
-        <v>0.07014081416816853</v>
+        <v>0.4163918793752099</v>
       </c>
       <c r="T2" t="n">
-        <v>10.98201366746754</v>
+        <v>12.25042460464163</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[6.851321351746492, 15.112705983188583]</t>
+          <t>[7.708737083281914, 16.792112126001353]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.799687287557973e-06</v>
+        <v>2.151745777112524e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>2.799687287557973e-06</v>
+        <v>2.151745777112524e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>4.796996996997024</v>
+        <v>4.620320320320346</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.4111711711711754</v>
+        <v>-6.724624624624667</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.00516516516522</v>
+        <v>15.96526526526536</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.82000000000013</v>
+        <v>22.85000000000013</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08483374006620248</v>
+        <v>0.08199495545281266</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08483374006620248</v>
+        <v>0.08199495545281266</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>7.100223319576978</v>
+        <v>6.676311807249885</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.427942055781049, 15.628388694935005]</t>
+          <t>[-1.3315788277119776, 14.684202442211747]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.100503274030695</v>
+        <v>0.1000462401018132</v>
       </c>
       <c r="O3" t="n">
-        <v>0.100503274030695</v>
+        <v>0.1000462401018132</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.044052813805617</v>
+        <v>-0.9560001668581553</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.930921738725968, 1.8428161111147334]</t>
+          <t>[-3.635316423973775, 1.7233160902574647]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.4701351396947235</v>
+        <v>0.4760734596055283</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4701351396947235</v>
+        <v>0.4760734596055283</v>
       </c>
       <c r="T3" t="n">
-        <v>12.33914912294158</v>
+        <v>11.33560515708049</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.941598124715297, 16.736700121167864]</t>
+          <t>[7.21402667304854, 15.45718364111244]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.024964811469076e-06</v>
+        <v>1.499209518973643e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>1.024964811469076e-06</v>
+        <v>1.499209518973643e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>3.791911911911935</v>
+        <v>3.476676676676696</v>
       </c>
       <c r="Y3" t="n">
-        <v>-6.692952952952989</v>
+        <v>-6.267167167167205</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.27677677677686</v>
+        <v>13.2205205205206</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.82000000000013</v>
+        <v>22.85000000000013</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09115502114794449</v>
+        <v>0.05855870960095644</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09115502114794449</v>
+        <v>0.05855870960095644</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5.963898623134955</v>
+        <v>6.260134324659608</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.1742680541430257, 13.102065300412935]</t>
+          <t>[-0.7509805643597911, 13.271249213679006]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.09934612829500455</v>
+        <v>0.07882883219455805</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09934612829500455</v>
+        <v>0.07882883219455805</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.8931054190385401</v>
+        <v>-0.704421175579693</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.98123753698166, 2.19502669890458]</t>
+          <t>[-3.7799743439588895, 2.3711319927995036]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.5631439907987796</v>
+        <v>0.646799806917028</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5631439907987796</v>
+        <v>0.646799806917028</v>
       </c>
       <c r="T4" t="n">
-        <v>10.08805184430067</v>
+        <v>9.277399767364026</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.311127387143442, 13.864976301457896]</t>
+          <t>[5.6275964202755535, 12.927203114452498]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.574542423028348e-06</v>
+        <v>6.170328230803435e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>2.574542423028348e-06</v>
+        <v>6.170328230803435e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>3.243683683683702</v>
+        <v>2.561761761761776</v>
       </c>
       <c r="Y4" t="n">
-        <v>-7.972152152152198</v>
+        <v>-8.623073073073122</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.4595195195196</v>
+        <v>13.74659659659667</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.82000000000013</v>
+        <v>22.85000000000013</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2158789101916461</v>
+        <v>0.1556539966444912</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2158789101916461</v>
+        <v>0.1556539966444912</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>4.969933176537761</v>
+        <v>5.674086048361988</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-2.2311713884152162, 12.17103774149074]</t>
+          <t>[-1.8778311284544014, 13.226003225178378]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1713491987358582</v>
+        <v>0.1371998203425973</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1713491987358582</v>
+        <v>0.1371998203425973</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2641579408423853</v>
+        <v>-0.1761052938949232</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.2956847857478513, 2.7673689040630807]</t>
+          <t>[-2.257921446724195, 1.9057108589343486]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.8614719383552107</v>
+        <v>0.8654771289706784</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8614719383552107</v>
+        <v>0.8654771289706784</v>
       </c>
       <c r="T5" t="n">
-        <v>8.426524490265896</v>
+        <v>10.48011081259391</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[4.363494019874555, 12.489554960657237]</t>
+          <t>[6.282373763797222, 14.677847861390592]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>0.0001338205023664329</v>
+        <v>8.367721674451545e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0001338205023664329</v>
+        <v>8.367721674451545e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>0.9593993993994054</v>
+        <v>0.6404404404404431</v>
       </c>
       <c r="Y5" t="n">
-        <v>-10.0508508508509</v>
+        <v>-6.93048048048052</v>
       </c>
       <c r="Z5" t="n">
-        <v>11.96964964964972</v>
+        <v>8.211361361361405</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.82000000000013</v>
+        <v>22.85000000000013</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5187880166387173</v>
+        <v>0.4778354679019692</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5187880166387173</v>
+        <v>0.4778354679019692</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>3.449868452297479</v>
+        <v>3.731592474609271</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-4.482785800903802, 11.38252270549876]</t>
+          <t>[-4.0346246855795425, 11.497809634798086]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.3857238676083199</v>
+        <v>0.3383383273406584</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3857238676083199</v>
+        <v>0.3383383273406584</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1383684452031542</v>
+        <v>-0.07547369738353815</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.2579479370560818, 2.9812110466497734]</t>
+          <t>[-3.2076321388003888, 3.0566847440333125]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9292119215564028</v>
+        <v>0.961506542011811</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9292119215564028</v>
+        <v>0.961506542011811</v>
       </c>
       <c r="T6" t="n">
-        <v>10.18529682756609</v>
+        <v>10.67598487231925</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[5.829308872107532, 14.54128478302465]</t>
+          <t>[6.241004521983031, 15.110965222655478]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.404400180422428e-05</v>
+        <v>1.521304657536859e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>2.404400180422428e-05</v>
+        <v>1.521304657536859e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>0.502542542542546</v>
+        <v>0.2744744744744736</v>
       </c>
       <c r="Y6" t="n">
-        <v>-10.82750750750757</v>
+        <v>-11.11621621621628</v>
       </c>
       <c r="Z6" t="n">
-        <v>11.83259259259266</v>
+        <v>11.66516516516523</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.82000000000013</v>
+        <v>22.85000000000013</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1597826935965013</v>
+        <v>0.2611867411571636</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1597826935965013</v>
+        <v>0.2611867411571636</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.204383507900285</v>
+        <v>4.512971464624205</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.5106680857261878, 11.919435101526759]</t>
+          <t>[-2.873778120158791, 11.899721049407201]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1255307610317831</v>
+        <v>0.2248936522278226</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1255307610317831</v>
+        <v>0.2248936522278226</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2327105669325773</v>
+        <v>0.2956053147521924</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.4277372658371577, 2.8931583997023123]</t>
+          <t>[-2.817684702318773, 3.408895331823158]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.8609472880845872</v>
+        <v>0.8491993110234302</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8609472880845872</v>
+        <v>0.8491993110234302</v>
       </c>
       <c r="T7" t="n">
-        <v>9.946235330526395</v>
+        <v>9.779024229312917</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.082398390419147, 13.810072270633643]</t>
+          <t>[5.849919616007164, 13.70812884261867]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.961984630735827e-06</v>
+        <v>8.814034788695579e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>4.961984630735827e-06</v>
+        <v>8.814034788695579e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>21.97481481481494</v>
+        <v>21.7749749749751</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.31229229229236</v>
+        <v>10.45290290290297</v>
       </c>
       <c r="Z7" t="n">
-        <v>31.63733733733751</v>
+        <v>33.09704704704724</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.82000000000013</v>
+        <v>22.85000000000013</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1513295065788802</v>
+        <v>0.2092777953826633</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1513295065788802</v>
+        <v>0.2092777953826633</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>5.264450101165904</v>
+        <v>5.479674362935</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.160562694011386, 12.689462896343194]</t>
+          <t>[-2.8801948544729115, 13.839543580342912]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1601868618955706</v>
+        <v>0.1934471128753033</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1601868618955706</v>
+        <v>0.1934471128753033</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5975001042863468</v>
+        <v>0.5849211547224247</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.5409478119124658, 3.7359480204851594]</t>
+          <t>[-2.5283688623485423, 3.6982111717933916]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.7031943363468418</v>
+        <v>0.7069074137415283</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7031943363468418</v>
+        <v>0.7069074137415283</v>
       </c>
       <c r="T8" t="n">
-        <v>10.98899866148819</v>
+        <v>11.71217736258298</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[7.196473220261814, 14.781524102714567]</t>
+          <t>[7.3503207197241025, 16.07403400544186]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.467237089717969e-07</v>
+        <v>2.33800153504049e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>5.467237089717969e-07</v>
+        <v>2.33800153504049e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>20.64992992993005</v>
+        <v>20.72282282282294</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.251351351351403</v>
+        <v>9.400750750750801</v>
       </c>
       <c r="Z8" t="n">
-        <v>32.04850850850869</v>
+        <v>32.04489489489508</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.82000000000013</v>
+        <v>22.85000000000013</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08470230984541549</v>
+        <v>0.05927722090969934</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08470230984541549</v>
+        <v>0.05927722090969934</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.732565669267682</v>
+        <v>6.244439811183746</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-1.092782896672496, 12.55791423520786]</t>
+          <t>[-0.6719141592375681, 13.16079378160506]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.09763110551405862</v>
+        <v>0.07565697125346804</v>
       </c>
       <c r="O9" t="n">
-        <v>0.09763110551405862</v>
+        <v>0.07565697125346804</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5471843060306547</v>
+        <v>0.6226580034141929</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.6101055441821561, 2.7044741562434655]</t>
+          <t>[-1.484316048542925, 2.7296320553713107]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.6119423026006077</v>
+        <v>0.5546829554794113</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6119423026006077</v>
+        <v>0.5546829554794113</v>
       </c>
       <c r="T9" t="n">
-        <v>10.29509987869771</v>
+        <v>10.39944684691499</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[6.69509655499465, 13.895103202400769]</t>
+          <t>[6.759809206868108, 14.039084486961865]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>7.086912292564307e-07</v>
+        <v>7.208132488667474e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>7.086912292564307e-07</v>
+        <v>7.208132488667474e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>20.83267267267279</v>
+        <v>20.58558558558571</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.99757757757765</v>
+        <v>12.92317317317325</v>
       </c>
       <c r="Z9" t="n">
-        <v>28.66776776776793</v>
+        <v>28.24799799799816</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.30000000000036</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2594927250893611</v>
+        <v>0.2267421562799182</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2594927250893611</v>
+        <v>0.2267421562799182</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>4.982309602876751</v>
+        <v>5.172031393796296</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.989836466102682, 12.954455671856184]</t>
+          <t>[-2.686699328630249, 13.03076211622284]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.2146141807486008</v>
+        <v>0.1916848287575217</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2146141807486008</v>
+        <v>0.1916848287575217</v>
       </c>
       <c r="P10" t="n">
-        <v>1.188710733790733</v>
+        <v>1.327079178993887</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.9497371824080796, 4.327158649989545]</t>
+          <t>[-1.7925003128590404, 4.446658670846814]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.4495294845627864</v>
+        <v>0.3960920118589066</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4495294845627864</v>
+        <v>0.3960920118589066</v>
       </c>
       <c r="T10" t="n">
-        <v>9.674945419955662</v>
+        <v>10.08624391949126</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[5.406486768551094, 13.94340407136023]</t>
+          <t>[5.865311265184815, 14.307176573797712]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.85209389839325e-05</v>
+        <v>1.71079332520474e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>3.85209389839325e-05</v>
+        <v>1.71079332520474e-05</v>
       </c>
       <c r="X10" t="n">
-        <v>19.70270270270299</v>
+        <v>19.18334334334363</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.564864864864978</v>
+        <v>7.108548548548656</v>
       </c>
       <c r="Z10" t="n">
-        <v>31.84054054054101</v>
+        <v>31.25813813813861</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.30000000000036</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2436382156376113</v>
+        <v>0.1617661901412045</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2436382156376113</v>
+        <v>0.1617661901412045</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>5.666217783045838</v>
+        <v>5.795097363554597</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-3.040847574785106, 14.373283140876781]</t>
+          <t>[-2.0195065662366947, 13.60970129334589]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1966093025015176</v>
+        <v>0.1422582778026813</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1966093025015176</v>
+        <v>0.1422582778026813</v>
       </c>
       <c r="P11" t="n">
-        <v>1.213868632918579</v>
+        <v>1.33965812855781</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.9182898084982707, 4.34602707433543]</t>
+          <t>[-1.1950002085726936, 3.874316465688313]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.439144581459364</v>
+        <v>0.2927693398963183</v>
       </c>
       <c r="S11" t="n">
-        <v>0.439144581459364</v>
+        <v>0.2927693398963183</v>
       </c>
       <c r="T11" t="n">
-        <v>11.03111007785379</v>
+        <v>10.46300729873815</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[6.285617444198063, 15.776602711509515]</t>
+          <t>[6.20756548814629, 14.718449109330006]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.631807830555388e-05</v>
+        <v>1.078624010264484e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>2.631807830555388e-05</v>
+        <v>1.078624010264484e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>19.60540540540569</v>
+        <v>19.13465465465494</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.491891891892001</v>
+        <v>9.323883883884026</v>
       </c>
       <c r="Z11" t="n">
-        <v>31.71891891891938</v>
+        <v>28.94542542542586</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.30000000000036</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06172102298029591</v>
+        <v>0.1095174490591722</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06172102298029591</v>
+        <v>0.1095174490591722</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>6.387816261738166</v>
+        <v>6.428276299210469</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.5899827525875292, 13.365615276063862]</t>
+          <t>[-1.6045826046961844, 14.461135203117124]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.07180168722344327</v>
+        <v>0.1140021234548374</v>
       </c>
       <c r="O12" t="n">
-        <v>0.07180168722344327</v>
+        <v>0.1140021234548374</v>
       </c>
       <c r="P12" t="n">
-        <v>0.8742369946926551</v>
+        <v>0.7736053981812701</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.9748950815359256, 3.723369070921236]</t>
+          <t>[-2.226474072814387, 3.773684869176927]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.5396814694382086</v>
+        <v>0.6060549596378353</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5396814694382086</v>
+        <v>0.6060549596378353</v>
       </c>
       <c r="T12" t="n">
-        <v>9.161542098605114</v>
+        <v>11.04630701283103</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[5.429327465295157, 12.893756731915072]</t>
+          <t>[6.811020897119372, 15.28159312854268]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.107998344274108e-05</v>
+        <v>3.943099243564063e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>1.107998344274108e-05</v>
+        <v>3.943099243564063e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>20.91891891891923</v>
+        <v>21.32564564564597</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.900000000000148</v>
+        <v>9.713393393393545</v>
       </c>
       <c r="Z12" t="n">
-        <v>31.93783783783831</v>
+        <v>32.93789789789839</v>
       </c>
     </row>
     <row r="13">
@@ -1511,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.30000000000036</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.143349719383231</v>
+        <v>0.0214281134138431</v>
       </c>
       <c r="I13" t="n">
-        <v>0.143349719383231</v>
+        <v>0.0214281134138431</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>5.368609020062639</v>
+        <v>7.911984679036474</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-1.8887443558522001, 12.625962395977478]</t>
+          <t>[0.45304972640244756, 15.3709196316705]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.1432194210363404</v>
+        <v>0.03811702153780017</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1432194210363404</v>
+        <v>0.03811702153780017</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5597632555945786</v>
+        <v>0.8365001460008861</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-2.427737265837157, 3.5472637770263145]</t>
+          <t>[0.006289474781961069, 1.666710817219811]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.7076657178823238</v>
+        <v>0.04836083122855395</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7076657178823238</v>
+        <v>0.04836083122855395</v>
       </c>
       <c r="T13" t="n">
-        <v>9.101792782102736</v>
+        <v>9.870494609495216</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[5.322733936395018, 12.880851627810454]</t>
+          <t>[5.982654364079579, 13.758334854910853]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.508605984357203e-05</v>
+        <v>6.29968004628445e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>1.508605984357203e-05</v>
+        <v>6.29968004628445e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>22.13513513513546</v>
+        <v>21.08220220220252</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.58108108108123</v>
+        <v>17.86874874874901</v>
       </c>
       <c r="Z13" t="n">
-        <v>33.68918918918969</v>
+        <v>24.29565565565602</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.30000000000036</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07894196373720452</v>
+        <v>0.08516893670663706</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07894196373720452</v>
+        <v>0.08516893670663706</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>6.353556093908648</v>
+        <v>6.18361681167104</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-1.1725520807554801, 13.879664268572776]</t>
+          <t>[-1.1130348340209775, 13.480268457363058]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.09597511145026538</v>
+        <v>0.09473860959819103</v>
       </c>
       <c r="O14" t="n">
-        <v>0.09597511145026538</v>
+        <v>0.09473860959819103</v>
       </c>
       <c r="P14" t="n">
         <v>0.5849211547224247</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-1.8994213841523875, 3.069263693597237]</t>
+          <t>[-2.1384214258669267, 3.308263735311776]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.6376455854572947</v>
+        <v>0.6673785923248712</v>
       </c>
       <c r="S14" t="n">
-        <v>0.6376455854572947</v>
+        <v>0.6673785923248712</v>
       </c>
       <c r="T14" t="n">
-        <v>9.966101702742044</v>
+        <v>10.01086074793674</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[6.082389153449821, 13.849814252034268]</t>
+          <t>[6.166737639018445, 13.854983856855034]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>5.239566337023049e-06</v>
+        <v>4.050329364568839e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>5.239566337023049e-06</v>
+        <v>4.050329364568839e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>22.03783783783816</v>
+        <v>22.0559759759763</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.42972972972991</v>
+        <v>11.51487487487504</v>
       </c>
       <c r="Z14" t="n">
-        <v>31.64594594594642</v>
+        <v>32.59707707707756</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.30000000000036</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02392184305711875</v>
+        <v>0.08182872418835463</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02392184305711875</v>
+        <v>0.08182872418835463</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>8.151752343264917</v>
+        <v>6.232307528774012</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[0.6230492955489169, 15.680455390980917]</t>
+          <t>[-0.8664695764572112, 13.331084634005235]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.03446693747541985</v>
+        <v>0.08379566068780142</v>
       </c>
       <c r="O15" t="n">
-        <v>0.03446693747541985</v>
+        <v>0.08379566068780142</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3081842643161155</v>
+        <v>0.3081842643161163</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.9685791164220783, 1.5849476450543092]</t>
+          <t>[-1.4088423511593868, 2.0252108797916195]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.629210880628271</v>
+        <v>0.7194133198031181</v>
       </c>
       <c r="S15" t="n">
-        <v>0.629210880628271</v>
+        <v>0.7194133198031181</v>
       </c>
       <c r="T15" t="n">
-        <v>11.93323797224036</v>
+        <v>10.91470318117621</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[7.8861598338812104, 15.980316110599519]</t>
+          <t>[7.082214840087499, 14.747191522264924]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>3.848630794056618e-07</v>
+        <v>7.684721088363489e-07</v>
       </c>
       <c r="W15" t="n">
-        <v>3.848630794056618e-07</v>
+        <v>7.684721088363489e-07</v>
       </c>
       <c r="X15" t="n">
-        <v>23.10810810810845</v>
+        <v>23.12712712712747</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.17027027027054</v>
+        <v>16.48112112112136</v>
       </c>
       <c r="Z15" t="n">
-        <v>28.04594594594636</v>
+        <v>29.77313313313358</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_7_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_7_sawtooth_10_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.85000000000013</v>
+        <v>22.76000000000012</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2232516528205187</v>
+        <v>0.1167340234061882</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2232516528205187</v>
+        <v>0.1167340234061882</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>5.70635902201445</v>
+        <v>5.88159195969455</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-2.5652209432348023, 13.977938987263702]</t>
+          <t>[-1.4557751066772227, 13.218959026066322]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1715238328199802</v>
+        <v>0.1134114475844652</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1715238328199802</v>
+        <v>0.1134114475844652</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.270473905956233</v>
+        <v>-1.232737057264464</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.390053397809161, 1.8491055858966954]</t>
+          <t>[-3.182474239672543, 0.717000125143616]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.4163918793752099</v>
+        <v>0.2094032556429608</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4163918793752099</v>
+        <v>0.2094032556429608</v>
       </c>
       <c r="T2" t="n">
-        <v>12.25042460464163</v>
+        <v>10.16233467128178</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.708737083281914, 16.792112126001353]</t>
+          <t>[6.275593562398497, 14.049075780165062]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.151745777112524e-06</v>
+        <v>3.774381631682644e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>2.151745777112524e-06</v>
+        <v>3.774381631682644e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>4.620320320320346</v>
+        <v>4.465425425425451</v>
       </c>
       <c r="Y2" t="n">
-        <v>-6.724624624624667</v>
+        <v>-2.597237237237248</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.96526526526536</v>
+        <v>11.52808808808815</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.85000000000013</v>
+        <v>22.76000000000012</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08199495545281266</v>
+        <v>0.04245706535423976</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08199495545281266</v>
+        <v>0.04245706535423976</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>6.676311807249885</v>
+        <v>7.215225302290731</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.3315788277119776, 14.684202442211747]</t>
+          <t>[-0.1317353912613619, 14.562185995842825]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1000462401018132</v>
+        <v>0.05407256087189793</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1000462401018132</v>
+        <v>0.05407256087189793</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.9560001668581553</v>
+        <v>-1.05663176336954</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.635316423973775, 1.7233160902574647]</t>
+          <t>[-2.566105711040312, 0.45284218430123113]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.4760734596055283</v>
+        <v>0.1654518328924306</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4760734596055283</v>
+        <v>0.1654518328924306</v>
       </c>
       <c r="T3" t="n">
-        <v>11.33560515708049</v>
+        <v>11.22155762390555</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.21402667304854, 15.45718364111244]</t>
+          <t>[7.303539247598451, 15.13957600021265]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.499209518973643e-06</v>
+        <v>6.878845242308529e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>1.499209518973643e-06</v>
+        <v>6.878845242308529e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>3.476676676676696</v>
+        <v>3.82750750750753</v>
       </c>
       <c r="Y3" t="n">
-        <v>-6.267167167167205</v>
+        <v>-1.640360360360367</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.2205205205206</v>
+        <v>9.295375375375427</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.85000000000013</v>
+        <v>22.76000000000012</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05855870960095644</v>
+        <v>0.2040645978955957</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05855870960095644</v>
+        <v>0.2040645978955957</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>6.260134324659608</v>
+        <v>5.171667365276535</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-0.7509805643597911, 13.271249213679006]</t>
+          <t>[-2.5480725754095683, 12.891407305962638]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.07882883219455805</v>
+        <v>0.1839895219966716</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07882883219455805</v>
+        <v>0.1839895219966716</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.704421175579693</v>
+        <v>-0.8679475199106932</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.7799743439588895, 2.3711319927995036]</t>
+          <t>[-4.000105961327544, 2.264210921506158]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.646799806917028</v>
+        <v>0.5795254399541123</v>
       </c>
       <c r="S4" t="n">
-        <v>0.646799806917028</v>
+        <v>0.5795254399541123</v>
       </c>
       <c r="T4" t="n">
-        <v>9.277399767364026</v>
+        <v>9.723920319988807</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[5.6275964202755535, 12.927203114452498]</t>
+          <t>[5.655971084680768, 13.791869555296845]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.170328230803435e-06</v>
+        <v>1.701754580540893e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>6.170328230803435e-06</v>
+        <v>1.701754580540893e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>2.561761761761776</v>
+        <v>3.144024024024038</v>
       </c>
       <c r="Y4" t="n">
-        <v>-8.623073073073122</v>
+        <v>-8.201801801801848</v>
       </c>
       <c r="Z4" t="n">
-        <v>13.74659659659667</v>
+        <v>14.48984984984992</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.85000000000013</v>
+        <v>22.76000000000012</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1556539966444912</v>
+        <v>0.3441019731710856</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1556539966444912</v>
+        <v>0.3441019731710856</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.674086048361988</v>
+        <v>3.996256300475622</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.8778311284544014, 13.226003225178378]</t>
+          <t>[-3.262845600111676, 11.25535820106292]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1371998203425973</v>
+        <v>0.2734084682795677</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1371998203425973</v>
+        <v>0.2734084682795677</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.1761052938949232</v>
+        <v>-0.4151053356094625</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-2.257921446724195, 1.9057108589343486]</t>
+          <t>[-3.4655006048608135, 2.6352899336418885]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.8654771289706784</v>
+        <v>0.785274194299701</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8654771289706784</v>
+        <v>0.785274194299701</v>
       </c>
       <c r="T5" t="n">
-        <v>10.48011081259391</v>
+        <v>9.97095441290922</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.282373763797222, 14.677847861390592]</t>
+          <t>[6.045876428769416, 13.896032397049025]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>8.367721674451545e-06</v>
+        <v>6.235973888601976e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>8.367721674451545e-06</v>
+        <v>6.235973888601976e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>0.6404404404404431</v>
+        <v>1.503663663663673</v>
       </c>
       <c r="Y5" t="n">
-        <v>-6.93048048048052</v>
+        <v>-9.545985985986036</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.211361361361405</v>
+        <v>12.55331331331338</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.85000000000013</v>
+        <v>22.76000000000012</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4778354679019692</v>
+        <v>0.3639277807379712</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4778354679019692</v>
+        <v>0.3639277807379712</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>3.731592474609271</v>
+        <v>4.11151393995125</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-4.0346246855795425, 11.497809634798086]</t>
+          <t>[-3.779527605939009, 12.002555485841508]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.3383383273406584</v>
+        <v>0.2995885281181838</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3383383273406584</v>
+        <v>0.2995885281181838</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.07547369738353815</v>
+        <v>-0.4402632347373086</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.2076321388003888, 3.0566847440333125]</t>
+          <t>[-3.566132201372198, 2.685605731897581]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.961506542011811</v>
+        <v>0.7779593916637979</v>
       </c>
       <c r="S6" t="n">
-        <v>0.961506542011811</v>
+        <v>0.7779593916637979</v>
       </c>
       <c r="T6" t="n">
-        <v>10.67598487231925</v>
+        <v>10.40464150411156</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.241004521983031, 15.110965222655478]</t>
+          <t>[6.255660268172891, 14.553622740050224]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.521304657536859e-05</v>
+        <v>7.763907709179563e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.521304657536859e-05</v>
+        <v>7.763907709179563e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2744744744744736</v>
+        <v>1.594794794794804</v>
       </c>
       <c r="Y6" t="n">
-        <v>-11.11621621621628</v>
+        <v>-9.728248248248299</v>
       </c>
       <c r="Z6" t="n">
-        <v>11.66516516516523</v>
+        <v>12.91783783783791</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.85000000000013</v>
+        <v>22.76000000000012</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2611867411571636</v>
+        <v>0.1274102861574988</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2611867411571636</v>
+        <v>0.1274102861574988</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>4.512971464624205</v>
+        <v>5.686641886316689</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-2.873778120158791, 11.899721049407201]</t>
+          <t>[-1.0046362659580712, 12.37792003859145]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.2248936522278226</v>
+        <v>0.09383630135977961</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2248936522278226</v>
+        <v>0.09383630135977961</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2956053147521924</v>
+        <v>0.05660527303765406</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.817684702318773, 3.408895331823158]</t>
+          <t>[-1.522052897234695, 1.635263443310003]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.8491993110234302</v>
+        <v>0.9427477832922131</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8491993110234302</v>
+        <v>0.9427477832922131</v>
       </c>
       <c r="T7" t="n">
-        <v>9.779024229312917</v>
+        <v>10.1277938951294</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[5.849919616007164, 13.70812884261867]</t>
+          <t>[6.137832552346481, 14.11775523791232]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>8.814034788695579e-06</v>
+        <v>6.320641077195432e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>8.814034788695579e-06</v>
+        <v>6.320641077195432e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>21.7749749749751</v>
+        <v>22.55495495495507</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.45290290290297</v>
+        <v>16.83647647647656</v>
       </c>
       <c r="Z7" t="n">
-        <v>33.09704704704724</v>
+        <v>28.27343343343358</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.85000000000013</v>
+        <v>22.76000000000012</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2092777953826633</v>
+        <v>0.2851580105865873</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2092777953826633</v>
+        <v>0.2851580105865873</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>5.479674362935</v>
+        <v>4.378452350935211</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.8801948544729115, 13.839543580342912]</t>
+          <t>[-2.5926051914843278, 11.34950989335475]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1934471128753033</v>
+        <v>0.2123694194352166</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1934471128753033</v>
+        <v>0.2123694194352166</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5849211547224247</v>
+        <v>0.5220264069028078</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.5283688623485423, 3.6982111717933916]</t>
+          <t>[-2.603842559732081, 3.6478953735376964]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.7069074137415283</v>
+        <v>0.7381634347973471</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7069074137415283</v>
+        <v>0.7381634347973471</v>
       </c>
       <c r="T8" t="n">
-        <v>11.71217736258298</v>
+        <v>10.29703147605406</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[7.3503207197241025, 16.07403400544186]</t>
+          <t>[6.385032870878527, 14.20903008122959]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.33800153504049e-06</v>
+        <v>3.35094106040934e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>2.33800153504049e-06</v>
+        <v>3.35094106040934e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>20.72282282282294</v>
+        <v>20.86902902902914</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.400750750750801</v>
+        <v>9.545985985986039</v>
       </c>
       <c r="Z8" t="n">
-        <v>32.04489489489508</v>
+        <v>32.19207207207224</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.85000000000013</v>
+        <v>22.76000000000012</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05927722090969934</v>
+        <v>0.1734602526924801</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05927722090969934</v>
+        <v>0.1734602526924801</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>6.244439811183746</v>
+        <v>5.543288011882597</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.6719141592375681, 13.16079378160506]</t>
+          <t>[-2.28906976931631, 13.375645793081503]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.07565697125346804</v>
+        <v>0.1609226407884194</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07565697125346804</v>
+        <v>0.1609226407884194</v>
       </c>
       <c r="P9" t="n">
-        <v>0.6226580034141929</v>
+        <v>0.8868159442565782</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.484316048542925, 2.7296320553713107]</t>
+          <t>[-2.251631971942234, 4.02526386045539]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.5546829554794113</v>
+        <v>0.5721076975701003</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5546829554794113</v>
+        <v>0.5721076975701003</v>
       </c>
       <c r="T9" t="n">
-        <v>10.39944684691499</v>
+        <v>11.2801575260436</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[6.759809206868108, 14.039084486961865]</t>
+          <t>[7.183342213728883, 15.376972838358308]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>7.208132488667474e-07</v>
+        <v>1.46790012722775e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>7.208132488667474e-07</v>
+        <v>1.46790012722775e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>20.58558558558571</v>
+        <v>19.54762762762773</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.92317317317325</v>
+        <v>8.179019019019064</v>
       </c>
       <c r="Z9" t="n">
-        <v>28.24799799799816</v>
+        <v>30.91623623623639</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.32000000000036</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2267421562799182</v>
+        <v>0.06735375637426377</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2267421562799182</v>
+        <v>0.06735375637426377</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.172031393796296</v>
+        <v>7.043946519247742</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.686699328630249, 13.03076211622284]</t>
+          <t>[-0.36822439536082285, 14.456117433856306]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1916848287575217</v>
+        <v>0.06198679034885113</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1916848287575217</v>
+        <v>0.06198679034885113</v>
       </c>
       <c r="P10" t="n">
-        <v>1.327079178993887</v>
+        <v>1.289342330302118</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.7925003128590404, 4.446658670846814]</t>
+          <t>[-0.30818426431611456, 2.88686892492035]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.3960920118589066</v>
+        <v>0.1110282695666918</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3960920118589066</v>
+        <v>0.1110282695666918</v>
       </c>
       <c r="T10" t="n">
-        <v>10.08624391949126</v>
+        <v>10.70776445135669</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[5.865311265184815, 14.307176573797712]</t>
+          <t>[6.505928255497951, 14.909600647215429]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.71079332520474e-05</v>
+        <v>5.907237093927264e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>1.71079332520474e-05</v>
+        <v>5.907237093927264e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>19.18334334334363</v>
+        <v>19.22608608608636</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.108548548548656</v>
+        <v>13.07567567567586</v>
       </c>
       <c r="Z10" t="n">
-        <v>31.25813813813861</v>
+        <v>25.37649649649685</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.32000000000036</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1617661901412045</v>
+        <v>0.2227487184925697</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1617661901412045</v>
+        <v>0.2227487184925697</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>5.795097363554597</v>
+        <v>5.664513280891773</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-2.0195065662366947, 13.60970129334589]</t>
+          <t>[-2.820405185741002, 14.149431747524549]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1422582778026813</v>
+        <v>0.1854896044744503</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1422582778026813</v>
+        <v>0.1854896044744503</v>
       </c>
       <c r="P11" t="n">
-        <v>1.33965812855781</v>
+        <v>1.037763339023655</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.1950002085726936, 3.874316465688313]</t>
+          <t>[-2.0818161528292727, 4.157342830876583]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.2927693398963183</v>
+        <v>0.506272585163086</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2927693398963183</v>
+        <v>0.506272585163086</v>
       </c>
       <c r="T11" t="n">
-        <v>10.46300729873815</v>
+        <v>11.33884010095152</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[6.20756548814629, 14.718449109330006]</t>
+          <t>[6.76437244775079, 15.913307754152253]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.078624010264484e-05</v>
+        <v>9.434662661345072e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>1.078624010264484e-05</v>
+        <v>9.434662661345072e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>19.13465465465494</v>
+        <v>20.19465465465494</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.323883883884026</v>
+        <v>8.184404404404519</v>
       </c>
       <c r="Z11" t="n">
-        <v>28.94542542542586</v>
+        <v>32.20490490490536</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.32000000000036</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1095174490591722</v>
+        <v>0.01806653075727394</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1095174490591722</v>
+        <v>0.01806653075727394</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>6.428276299210469</v>
+        <v>7.164051035714877</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-1.6045826046961844, 14.461135203117124]</t>
+          <t>[0.7951314323524095, 13.532970639077345]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1140021234548374</v>
+        <v>0.02833916969938111</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1140021234548374</v>
+        <v>0.02833916969938111</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7736053981812701</v>
+        <v>0.9748685912040393</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.226474072814387, 3.773684869176927]</t>
+          <t>[-0.11950002085727096, 2.0692372032653497]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.6060549596378353</v>
+        <v>0.07950569699537846</v>
       </c>
       <c r="S12" t="n">
-        <v>0.6060549596378353</v>
+        <v>0.07950569699537846</v>
       </c>
       <c r="T12" t="n">
-        <v>11.04630701283103</v>
+        <v>10.36930157093535</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[6.811020897119372, 15.28159312854268]</t>
+          <t>[6.925948986678584, 13.81265415519212]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.943099243564063e-06</v>
+        <v>2.497889719510482e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>3.943099243564063e-06</v>
+        <v>2.497889719510482e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>21.32564564564597</v>
+        <v>20.43679679679709</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.713393393393545</v>
+        <v>16.22352352352375</v>
       </c>
       <c r="Z12" t="n">
-        <v>32.93789789789839</v>
+        <v>24.65007007007043</v>
       </c>
     </row>
     <row r="13">
@@ -1511,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.32000000000036</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0214281134138431</v>
+        <v>0.1539705875249402</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0214281134138431</v>
+        <v>0.1539705875249402</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>7.911984679036474</v>
+        <v>5.659022791579953</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[0.45304972640244756, 15.3709196316705]</t>
+          <t>[-1.9939980402335102, 13.312043623393416]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.03811702153780017</v>
+        <v>0.1433768050258684</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03811702153780017</v>
+        <v>0.1433768050258684</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8365001460008861</v>
+        <v>0.6729738016698859</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.006289474781961069, 1.666710817219811]</t>
+          <t>[-2.4528951649650037, 3.7988427683047754]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.04836083122855395</v>
+        <v>0.6666362460242543</v>
       </c>
       <c r="S13" t="n">
-        <v>0.04836083122855395</v>
+        <v>0.6666362460242543</v>
       </c>
       <c r="T13" t="n">
-        <v>9.870494609495216</v>
+        <v>10.68334449617852</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[5.982654364079579, 13.758334854910853]</t>
+          <t>[6.610976769004807, 14.75571222335224]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>6.29968004628445e-06</v>
+        <v>3.556834229145878e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>6.29968004628445e-06</v>
+        <v>3.556834229145878e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>21.08220220220252</v>
+        <v>21.59907907907938</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.86874874874901</v>
+        <v>9.564614614614749</v>
       </c>
       <c r="Z13" t="n">
-        <v>24.29565565565602</v>
+        <v>33.63354354354402</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.32000000000036</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08516893670663706</v>
+        <v>0.03252571223581402</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08516893670663706</v>
+        <v>0.03252571223581402</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>6.18361681167104</v>
+        <v>7.171888674617247</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-1.1130348340209775, 13.480268457363058]</t>
+          <t>[-0.00754806554249754, 14.35132541477699]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.09473860959819103</v>
+        <v>0.05023124261987322</v>
       </c>
       <c r="O14" t="n">
-        <v>0.09473860959819103</v>
+        <v>0.05023124261987322</v>
       </c>
       <c r="P14" t="n">
-        <v>0.5849211547224247</v>
+        <v>0.6729738016698859</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-2.1384214258669267, 3.308263735311776]</t>
+          <t>[-1.0314738642416934, 2.377421467581465]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.6673785923248712</v>
+        <v>0.4306506936627952</v>
       </c>
       <c r="S14" t="n">
-        <v>0.6673785923248712</v>
+        <v>0.4306506936627952</v>
       </c>
       <c r="T14" t="n">
-        <v>10.01086074793674</v>
+        <v>10.69319931085962</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[6.166737639018445, 13.854983856855034]</t>
+          <t>[6.946578609886305, 14.439820011832932]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>4.050329364568839e-06</v>
+        <v>7.367289638349206e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>4.050329364568839e-06</v>
+        <v>7.367289638349206e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>22.0559759759763</v>
+        <v>21.59907907907938</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.51487487487504</v>
+        <v>15.03702702702724</v>
       </c>
       <c r="Z14" t="n">
-        <v>32.59707707707756</v>
+        <v>28.16113113113153</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.32000000000036</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08182872418835463</v>
+        <v>0.07989776321837527</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08182872418835463</v>
+        <v>0.07989776321837527</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>6.232307528774012</v>
+        <v>6.623560603638252</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-0.8664695764572112, 13.331084634005235]</t>
+          <t>[-0.8441751939102211, 14.091296401186725]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.08379566068780142</v>
+        <v>0.08076908160028284</v>
       </c>
       <c r="O15" t="n">
-        <v>0.08379566068780142</v>
+        <v>0.08076908160028284</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3081842643161163</v>
+        <v>0.4842895582110396</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.4088423511593868, 2.0252108797916195]</t>
+          <t>[-1.522052897234695, 2.490632013656774]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.7194133198031181</v>
+        <v>0.6292108806282708</v>
       </c>
       <c r="S15" t="n">
-        <v>0.7194133198031181</v>
+        <v>0.6292108806282708</v>
       </c>
       <c r="T15" t="n">
-        <v>10.91470318117621</v>
+        <v>10.81932561134595</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[7.082214840087499, 14.747191522264924]</t>
+          <t>[6.7543989050473225, 14.884252317644576]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>7.684721088363489e-07</v>
+        <v>2.743349362788194e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>7.684721088363489e-07</v>
+        <v>2.743349362788194e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>23.12712712712747</v>
+        <v>22.32550550550582</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.48112112112136</v>
+        <v>14.60117117117137</v>
       </c>
       <c r="Z15" t="n">
-        <v>29.77313313313358</v>
+        <v>30.04983983984027</v>
       </c>
     </row>
   </sheetData>
